--- a/data/output/Pedido_Semana_08_09022026_mascotas_manufacturado.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_mascotas_manufacturado.xlsx
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>53.8</v>
@@ -2187,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>11.7</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>2.1</v>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4" t="n">
         <v>4.05</v>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="4" t="n">
         <v>3.1</v>
@@ -3564,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>7.7</v>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>3.7</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>89.18000000000001</v>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="4" t="n">
         <v>15.8</v>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="4" t="n">
         <v>7.98</v>
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" s="4" t="n">
         <v>12.1</v>
@@ -6480,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="4" t="n">
         <v>7.75</v>
@@ -7209,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M83" s="4" t="n">
         <v>15.08</v>
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" s="4" t="n">
         <v>3.52</v>
@@ -9072,7 +9072,7 @@
         <v>3</v>
       </c>
       <c r="L106" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M106" s="4" t="n">
         <v>95.40000000000001</v>
@@ -9234,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" s="4" t="n">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124" s="4" t="n">
         <v>2.9</v>
@@ -10692,7 +10692,7 @@
         <v>5</v>
       </c>
       <c r="L126" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M126" s="4" t="n">
         <v>24.5</v>
@@ -10773,7 +10773,7 @@
         <v>5</v>
       </c>
       <c r="L127" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M127" s="4" t="n">
         <v>14.35</v>
@@ -10854,7 +10854,7 @@
         <v>2</v>
       </c>
       <c r="L128" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" s="4" t="n">
         <v>2</v>
@@ -10935,7 +10935,7 @@
         <v>5</v>
       </c>
       <c r="L129" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M129" s="4" t="n">
         <v>9.800000000000001</v>
@@ -11016,7 +11016,7 @@
         <v>3</v>
       </c>
       <c r="L130" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M130" s="4" t="n">
         <v>2.8</v>
@@ -11097,7 +11097,7 @@
         <v>3</v>
       </c>
       <c r="L131" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M131" s="4" t="n">
         <v>3.8</v>
@@ -11340,7 +11340,7 @@
         <v>3</v>
       </c>
       <c r="L134" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M134" s="4" t="n">
         <v>3.85</v>
@@ -11664,7 +11664,7 @@
         <v>2</v>
       </c>
       <c r="L138" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M138" s="4" t="n">
         <v>4.9</v>
@@ -11826,7 +11826,7 @@
         <v>1</v>
       </c>
       <c r="L140" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M140" s="4" t="n">
         <v>2.05</v>
@@ -11988,7 +11988,7 @@
         <v>5</v>
       </c>
       <c r="L142" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M142" s="4" t="n">
         <v>7.35</v>
@@ -12312,7 +12312,7 @@
         <v>1</v>
       </c>
       <c r="L146" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M146" s="4" t="n">
         <v>8.119999999999999</v>
@@ -12474,7 +12474,7 @@
         <v>2</v>
       </c>
       <c r="L148" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M148" s="4" t="n">
         <v>10.2</v>
@@ -12555,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="L149" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M149" s="4" t="n">
         <v>7</v>
@@ -12798,7 +12798,7 @@
         <v>1</v>
       </c>
       <c r="L152" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M152" s="4" t="n">
         <v>11.7</v>
@@ -12960,7 +12960,7 @@
         <v>1</v>
       </c>
       <c r="L154" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M154" s="4" t="n">
         <v>14.95</v>
@@ -13284,7 +13284,7 @@
         <v>1</v>
       </c>
       <c r="L158" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M158" s="4" t="n">
         <v>5.85</v>
@@ -13365,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="L159" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M159" s="4" t="n">
         <v>15.25</v>
@@ -13446,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="L160" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M160" s="4" t="n">
         <v>8.300000000000001</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="L163" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M163" s="4" t="n">
         <v>8.300000000000001</v>
@@ -13932,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="L166" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M166" s="4" t="n">
         <v>1.33</v>
@@ -14337,7 +14337,7 @@
         <v>2</v>
       </c>
       <c r="L171" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M171" s="4" t="n">
         <v>3.9</v>
@@ -14580,7 +14580,7 @@
         <v>1</v>
       </c>
       <c r="L174" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M174" s="4" t="n">
         <v>3.95</v>
@@ -14661,7 +14661,7 @@
         <v>1</v>
       </c>
       <c r="L175" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M175" s="4" t="n">
         <v>1.68</v>
@@ -14823,7 +14823,7 @@
         <v>1</v>
       </c>
       <c r="L177" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M177" s="4" t="n">
         <v>5.22</v>
@@ -15876,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="L190" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M190" s="4" t="n">
         <v>6</v>
@@ -16281,7 +16281,7 @@
         <v>2</v>
       </c>
       <c r="L195" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M195" s="4" t="n">
         <v>6.7</v>
@@ -16362,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="L196" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M196" s="4" t="n">
         <v>4.5</v>
@@ -16443,7 +16443,7 @@
         <v>1</v>
       </c>
       <c r="L197" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M197" s="4" t="n">
         <v>4.5</v>
@@ -16929,7 +16929,7 @@
         <v>1</v>
       </c>
       <c r="L203" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M203" s="4" t="n">
         <v>132.65</v>
@@ -17577,7 +17577,7 @@
         <v>1</v>
       </c>
       <c r="L211" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M211" s="4" t="n">
         <v>1.68</v>
@@ -17658,7 +17658,7 @@
         <v>2</v>
       </c>
       <c r="L212" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M212" s="4" t="n">
         <v>8.380000000000001</v>
@@ -17820,7 +17820,7 @@
         <v>2</v>
       </c>
       <c r="L214" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M214" s="4" t="n">
         <v>6.7</v>
@@ -17901,7 +17901,7 @@
         <v>4</v>
       </c>
       <c r="L215" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M215" s="4" t="n">
         <v>20.1</v>
@@ -18553,7 +18553,7 @@
         </is>
       </c>
       <c r="C235" s="8" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_08_09022026_mascotas_manufacturado.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_mascotas_manufacturado.xlsx
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="3" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R6" s="3" t="n">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="3" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>8</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="3" t="n">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="3" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>2</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="3" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="3" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>6</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="3" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>2</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R41" s="3" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>2</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="3" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="3" t="n">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>4</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R48" s="3" t="n">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>2</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R49" s="3" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R50" s="3" t="n">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R55" s="3" t="n">
         <v>0</v>
@@ -5525,7 +5525,7 @@
         <v>2</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="3" t="n">
         <v>0</v>
@@ -5606,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="3" t="n">
         <v>0</v>
@@ -6092,7 +6092,7 @@
         <v>3</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="3" t="n">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>2</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="3" t="n">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R74" s="3" t="n">
         <v>0</v>
@@ -7226,7 +7226,7 @@
         <v>4</v>
       </c>
       <c r="Q83" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R83" s="3" t="n">
         <v>0</v>
@@ -7307,7 +7307,7 @@
         <v>3</v>
       </c>
       <c r="Q84" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" s="3" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="Q86" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" s="3" t="n">
         <v>0</v>
@@ -8603,7 +8603,7 @@
         <v>2</v>
       </c>
       <c r="Q100" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" s="3" t="n">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>11</v>
       </c>
       <c r="Q106" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R106" s="3" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>3</v>
       </c>
       <c r="Q110" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110" s="3" t="n">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>2</v>
       </c>
       <c r="Q112" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R112" s="3" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="Q113" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" s="3" t="n">
         <v>0</v>
@@ -9980,7 +9980,7 @@
         <v>2</v>
       </c>
       <c r="Q117" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117" s="3" t="n">
         <v>0</v>
@@ -10061,7 +10061,7 @@
         <v>4</v>
       </c>
       <c r="Q118" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118" s="3" t="n">
         <v>0</v>
@@ -10304,7 +10304,7 @@
         <v>4</v>
       </c>
       <c r="Q121" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R121" s="3" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>2</v>
       </c>
       <c r="Q123" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R123" s="3" t="n">
         <v>0</v>
@@ -10628,7 +10628,7 @@
         <v>2</v>
       </c>
       <c r="Q125" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125" s="3" t="n">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>19</v>
       </c>
       <c r="Q126" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R126" s="3" t="n">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>19</v>
       </c>
       <c r="Q127" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R127" s="3" t="n">
         <v>0</v>
@@ -10871,7 +10871,7 @@
         <v>6</v>
       </c>
       <c r="Q128" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R128" s="3" t="n">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>19</v>
       </c>
       <c r="Q129" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R129" s="3" t="n">
         <v>0</v>
@@ -11033,7 +11033,7 @@
         <v>10</v>
       </c>
       <c r="Q130" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R130" s="3" t="n">
         <v>0</v>
@@ -11114,7 +11114,7 @@
         <v>11</v>
       </c>
       <c r="Q131" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R131" s="3" t="n">
         <v>0</v>
@@ -11357,7 +11357,7 @@
         <v>10</v>
       </c>
       <c r="Q134" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R134" s="3" t="n">
         <v>0</v>
@@ -11519,7 +11519,7 @@
         <v>2</v>
       </c>
       <c r="Q136" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R136" s="3" t="n">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>23</v>
       </c>
       <c r="Q137" s="2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R137" s="3" t="n">
         <v>0</v>
@@ -11681,7 +11681,7 @@
         <v>6</v>
       </c>
       <c r="Q138" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R138" s="3" t="n">
         <v>0</v>
@@ -11762,7 +11762,7 @@
         <v>4</v>
       </c>
       <c r="Q139" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139" s="3" t="n">
         <v>0</v>
@@ -11924,7 +11924,7 @@
         <v>3</v>
       </c>
       <c r="Q141" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141" s="3" t="n">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>19</v>
       </c>
       <c r="Q142" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R142" s="3" t="n">
         <v>0</v>
@@ -12086,7 +12086,7 @@
         <v>2</v>
       </c>
       <c r="Q143" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R143" s="3" t="n">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>2</v>
       </c>
       <c r="Q144" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R144" s="3" t="n">
         <v>0</v>
@@ -12491,7 +12491,7 @@
         <v>6</v>
       </c>
       <c r="Q148" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R148" s="3" t="n">
         <v>0</v>
@@ -12734,7 +12734,7 @@
         <v>2</v>
       </c>
       <c r="Q151" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R151" s="3" t="n">
         <v>0</v>
@@ -13058,7 +13058,7 @@
         <v>3</v>
       </c>
       <c r="Q155" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R155" s="3" t="n">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>2</v>
       </c>
       <c r="Q157" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R157" s="3" t="n">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>4</v>
       </c>
       <c r="Q164" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R164" s="3" t="n">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>2</v>
       </c>
       <c r="Q165" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R165" s="3" t="n">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         <v>2</v>
       </c>
       <c r="Q169" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R169" s="3" t="n">
         <v>0</v>
@@ -14354,7 +14354,7 @@
         <v>6</v>
       </c>
       <c r="Q171" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R171" s="3" t="n">
         <v>0</v>
@@ -14759,7 +14759,7 @@
         <v>2</v>
       </c>
       <c r="Q176" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R176" s="3" t="n">
         <v>0</v>
@@ -14921,7 +14921,7 @@
         <v>2</v>
       </c>
       <c r="Q178" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R178" s="3" t="n">
         <v>0</v>
@@ -15083,7 +15083,7 @@
         <v>2</v>
       </c>
       <c r="Q180" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R180" s="3" t="n">
         <v>0</v>
@@ -15164,7 +15164,7 @@
         <v>3</v>
       </c>
       <c r="Q181" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R181" s="3" t="n">
         <v>0</v>
@@ -16136,7 +16136,7 @@
         <v>2</v>
       </c>
       <c r="Q193" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R193" s="3" t="n">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>2</v>
       </c>
       <c r="Q194" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R194" s="3" t="n">
         <v>0</v>
@@ -16541,7 +16541,7 @@
         <v>3</v>
       </c>
       <c r="Q198" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R198" s="3" t="n">
         <v>0</v>
@@ -16622,7 +16622,7 @@
         <v>4</v>
       </c>
       <c r="Q199" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R199" s="3" t="n">
         <v>0</v>
@@ -16703,7 +16703,7 @@
         <v>3</v>
       </c>
       <c r="Q200" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R200" s="3" t="n">
         <v>0</v>
@@ -16784,7 +16784,7 @@
         <v>3</v>
       </c>
       <c r="Q201" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R201" s="3" t="n">
         <v>0</v>
@@ -16865,7 +16865,7 @@
         <v>2</v>
       </c>
       <c r="Q202" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R202" s="3" t="n">
         <v>0</v>
@@ -17027,7 +17027,7 @@
         <v>2</v>
       </c>
       <c r="Q204" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R204" s="3" t="n">
         <v>0</v>
@@ -17108,7 +17108,7 @@
         <v>2</v>
       </c>
       <c r="Q205" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R205" s="3" t="n">
         <v>0</v>
@@ -17270,7 +17270,7 @@
         <v>2</v>
       </c>
       <c r="Q207" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R207" s="3" t="n">
         <v>0</v>
@@ -17432,7 +17432,7 @@
         <v>2</v>
       </c>
       <c r="Q209" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R209" s="3" t="n">
         <v>0</v>
@@ -17513,7 +17513,7 @@
         <v>3</v>
       </c>
       <c r="Q210" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R210" s="3" t="n">
         <v>0</v>
@@ -17594,7 +17594,7 @@
         <v>2</v>
       </c>
       <c r="Q211" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R211" s="3" t="n">
         <v>0</v>
@@ -17675,7 +17675,7 @@
         <v>7</v>
       </c>
       <c r="Q212" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R212" s="3" t="n">
         <v>0</v>
@@ -17918,7 +17918,7 @@
         <v>16</v>
       </c>
       <c r="Q215" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R215" s="3" t="n">
         <v>0</v>
@@ -17999,7 +17999,7 @@
         <v>3</v>
       </c>
       <c r="Q216" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R216" s="3" t="n">
         <v>0</v>
@@ -18242,7 +18242,7 @@
         <v>2</v>
       </c>
       <c r="Q219" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R219" s="3" t="n">
         <v>0</v>
@@ -18323,7 +18323,7 @@
         <v>3</v>
       </c>
       <c r="Q220" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R220" s="3" t="n">
         <v>0</v>
